--- a/Assets/Excel/总表（仅供查看）.xlsx
+++ b/Assets/Excel/总表（仅供查看）.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FB83F3-5C72-46F9-825A-F144DE3F7612}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817D7222-2FEE-48DD-B316-AF1483408C91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3225" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
     <sheet name="装备" sheetId="7" r:id="rId2"/>
     <sheet name="仇恨" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="塔&amp;&amp;陷阱" sheetId="3" r:id="rId4"/>
     <sheet name="怪物" sheetId="4" r:id="rId5"/>
     <sheet name="BUFF" sheetId="5" r:id="rId6"/>
     <sheet name="具体BUFF效果" sheetId="6" r:id="rId7"/>
@@ -935,15 +935,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -994,12 +985,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,15 +1007,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1467,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1578,17 +1578,17 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="36">
         <f>0.8*C2</f>
         <v>160</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="36">
         <f>1*$D$2</f>
         <v>1</v>
       </c>
@@ -1607,16 +1607,16 @@
         <f>E4*G4</f>
         <v>48</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="37">
         <f>1.5*I2</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="4">
         <f>1.2*$E$2</f>
         <v>12</v>
@@ -1632,7 +1632,7 @@
         <f>E5*G5</f>
         <v>12</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1674,13 +1674,13 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1718,15 +1718,15 @@
         <f>E11*G11</f>
         <v>19.200000000000003</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="8">
         <v>0.4</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="D12" s="6" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="D12" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="4">
@@ -1744,15 +1744,15 @@
         <f t="shared" ref="H12:H14" si="1">E12*G12</f>
         <v>19.200000000000003</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="9">
         <v>0.4</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="4">
         <f>E5*I13</f>
         <v>4.8000000000000007</v>
@@ -1768,14 +1768,14 @@
         <f t="shared" si="1"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="9">
         <v>0.4</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1794,110 +1794,110 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="9">
         <v>0.4</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="13"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="14"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="11"/>
       <c r="K18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="J19" s="15"/>
+      <c r="A19" s="6"/>
+      <c r="J19" s="12"/>
       <c r="K19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J20" s="16"/>
-      <c r="K20" s="17" t="s">
+      <c r="J20" s="13"/>
+      <c r="K20" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J21" s="18"/>
-      <c r="K21" s="17" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J22" s="19"/>
-      <c r="K22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J23" s="20"/>
-      <c r="K23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J24" s="21"/>
-      <c r="K24" s="17" t="s">
+      <c r="J24" s="18"/>
+      <c r="K24" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J25" s="22"/>
-      <c r="K25" s="17"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="14" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1943,10 +1943,10 @@
       <c r="B2" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="35">
         <v>600</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="35">
         <v>50</v>
       </c>
     </row>
@@ -1957,10 +1957,10 @@
       <c r="B3" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="35">
         <v>60</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="35">
         <v>50</v>
       </c>
     </row>
@@ -1971,10 +1971,10 @@
       <c r="B4" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="35">
         <v>5</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="35">
         <v>50</v>
       </c>
     </row>
@@ -1985,10 +1985,10 @@
       <c r="B5" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="41">
-        <v>0</v>
-      </c>
-      <c r="D5" s="41">
+      <c r="C5" s="35">
+        <v>0</v>
+      </c>
+      <c r="D5" s="35">
         <v>50</v>
       </c>
     </row>
@@ -1999,10 +1999,10 @@
       <c r="B6" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="41">
-        <v>0</v>
-      </c>
-      <c r="D6" s="41">
+      <c r="C6" s="35">
+        <v>0</v>
+      </c>
+      <c r="D6" s="35">
         <v>50</v>
       </c>
     </row>
@@ -2013,10 +2013,10 @@
       <c r="B7" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="41">
-        <v>0</v>
-      </c>
-      <c r="D7" s="41">
+      <c r="C7" s="35">
+        <v>0</v>
+      </c>
+      <c r="D7" s="35">
         <v>50</v>
       </c>
     </row>
@@ -2041,121 +2041,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="21">
         <v>10</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="24">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24"/>
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="21">
         <v>200</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>50</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <v>50</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="13"/>
+      <c r="I11" s="10"/>
       <c r="J11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I12" s="14"/>
+      <c r="I12" s="11"/>
       <c r="J12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I13" s="15"/>
-      <c r="J13" s="17" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I14" s="16"/>
-      <c r="J14" s="17" t="s">
+      <c r="I14" s="13"/>
+      <c r="J14" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I15" s="18"/>
-      <c r="J15" s="17"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I16" s="19"/>
-      <c r="J16" s="17"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I17" s="20"/>
-      <c r="J17" s="17" t="s">
+      <c r="I17" s="17"/>
+      <c r="J17" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I18" s="21"/>
-      <c r="J18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I19" s="22"/>
-      <c r="J19" s="17" t="s">
+      <c r="I19" s="19"/>
+      <c r="J19" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2169,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174ED344-DF20-40FD-BACC-81A5F8F65521}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2185,34 +2185,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2252,28 +2252,28 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9">
-        <v>35</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1.2</v>
+      <c r="D3" s="6">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F11" si="1">1/E3</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>29.166666666666668</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3">
         <v>8</v>
@@ -2288,19 +2288,19 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>60</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>1.5</v>
       </c>
       <c r="F4" s="4">
@@ -2324,19 +2324,19 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>10</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>0.2</v>
       </c>
       <c r="F5" s="4">
@@ -2358,25 +2358,25 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="10"/>
       <c r="R5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>10</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>0.6</v>
       </c>
       <c r="F6" s="4">
@@ -2398,25 +2398,25 @@
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="11"/>
       <c r="R6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>5</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="4">
@@ -2438,34 +2438,34 @@
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="12"/>
+      <c r="R7" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9">
-        <v>6</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.1</v>
+      <c r="D8" s="6">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3">
         <v>4</v>
@@ -2478,25 +2478,25 @@
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="17" t="s">
+      <c r="Q8" s="13"/>
+      <c r="R8" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
         <v>20</v>
       </c>
       <c r="F9" s="4">
@@ -2518,23 +2518,23 @@
         <f>0.7*I9</f>
         <v>350</v>
       </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="17"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="14"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>5</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="4">
@@ -2556,23 +2556,23 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="17"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="4">
@@ -2594,35 +2594,35 @@
         <f t="shared" si="2"/>
         <v>420</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="17" t="s">
+      <c r="Q11" s="17"/>
+      <c r="R11" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="Q12" s="21"/>
-      <c r="R12" s="17"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="Q13" s="22"/>
-      <c r="R13" s="17" t="s">
+      <c r="Q13" s="19"/>
+      <c r="R13" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
@@ -2649,14 +2649,14 @@
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="9">
-        <v>35</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1.2</v>
+      <c r="D23" s="6">
+        <v>28</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
       </c>
       <c r="F23" s="3">
         <v>8</v>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="L23">
         <f>I23-INT(2*$F$37/J23/$E$37)*$D$37</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="M23">
         <f>IF(L23&gt;=0,1,0)</f>
@@ -2682,13 +2682,13 @@
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="6">
         <v>60</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <v>1.5</v>
       </c>
       <c r="F24" s="3">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="L24">
         <f t="shared" ref="L24:L36" si="4">I24-INT(2*$F$37/J24/$E$37)*$D$37</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="M24">
         <f t="shared" ref="M24:M36" si="5">IF(L24&gt;=0,1,0)</f>
@@ -2715,19 +2715,19 @@
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="6">
         <v>10</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>0.2</v>
       </c>
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="5" t="s">
         <v>69</v>
       </c>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
@@ -2749,13 +2749,13 @@
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="6">
         <v>10</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <v>0.6</v>
       </c>
       <c r="F26" s="3">
@@ -2774,21 +2774,21 @@
       </c>
       <c r="L26">
         <f>I26-INT(2*$F$37/J26/$E$37)*$D$37</f>
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="6">
         <v>5</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="3">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="4"/>
-        <v>420</v>
+        <v>660</v>
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
@@ -2815,14 +2815,14 @@
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="9">
-        <v>6</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0.1</v>
+      <c r="D28" s="6">
+        <v>30</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="4"/>
-        <v>2760</v>
+        <v>2880</v>
       </c>
       <c r="M30">
         <f t="shared" si="5"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="4"/>
-        <v>-135</v>
+        <v>-15</v>
       </c>
       <c r="M31">
         <f t="shared" si="5"/>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="4"/>
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="M32">
         <f t="shared" si="5"/>
@@ -2945,11 +2945,11 @@
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>-42</v>
+        <v>150</v>
       </c>
       <c r="M33">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.2">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="L34">
         <f t="shared" si="4"/>
-        <v>-180</v>
+        <v>-60</v>
       </c>
       <c r="M34">
         <f t="shared" si="5"/>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="L35">
         <f t="shared" si="4"/>
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="M35">
         <f t="shared" si="5"/>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="L36">
         <f t="shared" si="4"/>
-        <v>-150</v>
+        <v>-30</v>
       </c>
       <c r="M36">
         <f t="shared" si="5"/>
@@ -3021,11 +3021,11 @@
       </c>
       <c r="D37">
         <f>VLOOKUP(C37,C23:F28,2,0)</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <f>VLOOKUP(C37,C23:F28,3,0)</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <f>VLOOKUP(C37,C23:F28,4,0)</f>
@@ -3126,13 +3126,13 @@
       <c r="C2" s="3">
         <v>500</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="25">
         <v>1</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="25">
         <v>1</v>
       </c>
       <c r="G2" s="3">
@@ -3162,14 +3162,14 @@
         <f t="shared" ref="C3:J3" si="0">1*C2</f>
         <v>500</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="26">
         <v>1</v>
       </c>
       <c r="E3" s="4">
         <f>D3*$E$2</f>
         <v>10</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="26">
         <v>1</v>
       </c>
       <c r="G3" s="4">
@@ -3200,14 +3200,14 @@
         <f>1*C2</f>
         <v>500</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="26">
         <v>1.2</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:E16" si="1">D4*$E$2</f>
         <v>12</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="26">
         <v>0.8</v>
       </c>
       <c r="G4" s="4">
@@ -3238,14 +3238,14 @@
         <f>0.6*C2</f>
         <v>300</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="26">
         <v>1</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="26">
         <v>1.5</v>
       </c>
       <c r="G5" s="4">
@@ -3276,7 +3276,7 @@
         <f>0.1*C2</f>
         <v>50</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="26">
         <v>0</v>
       </c>
       <c r="E6" s="4">
@@ -3315,14 +3315,14 @@
         <f>3*C2</f>
         <v>1500</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="26">
         <v>2</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="26">
         <v>0.5</v>
       </c>
       <c r="G7" s="4">
@@ -3353,14 +3353,14 @@
         <f>1*C2</f>
         <v>500</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="26">
         <v>0.3</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="26">
         <v>0.5</v>
       </c>
       <c r="G8" s="4">
@@ -3394,14 +3394,14 @@
         <f>1*C2</f>
         <v>500</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="26">
         <v>0.8</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="26">
         <v>0.5</v>
       </c>
       <c r="G9" s="4">
@@ -3435,14 +3435,14 @@
         <f>10*C2</f>
         <v>5000</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="26">
         <v>1.5</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="26">
         <v>2</v>
       </c>
       <c r="G10" s="4">
@@ -3476,14 +3476,14 @@
         <f>0.35*C2</f>
         <v>175</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="26">
         <v>1</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="26">
         <v>1</v>
       </c>
       <c r="G11" s="4">
@@ -3517,14 +3517,14 @@
         <f>2*C2</f>
         <v>1000</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="26">
         <v>0.8</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="26">
         <v>0.8</v>
       </c>
       <c r="G12" s="4">
@@ -3545,7 +3545,7 @@
       <c r="K12" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="13"/>
+      <c r="N12" s="10"/>
       <c r="O12" t="s">
         <v>22</v>
       </c>
@@ -3561,14 +3561,14 @@
         <f>1*C4</f>
         <v>500</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="26">
         <v>0.4</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="26">
         <v>0.64</v>
       </c>
       <c r="G13" s="4">
@@ -3587,7 +3587,7 @@
         <f>INT(2.5*J2)</f>
         <v>100</v>
       </c>
-      <c r="N13" s="14"/>
+      <c r="N13" s="11"/>
       <c r="O13" t="s">
         <v>23</v>
       </c>
@@ -3603,14 +3603,14 @@
         <f>0.2*C2</f>
         <v>100</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="26">
         <v>0.3</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="26">
         <v>2</v>
       </c>
       <c r="G14" s="4">
@@ -3629,11 +3629,11 @@
         <f>INT(4*J2)</f>
         <v>160</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="17" t="s">
+      <c r="N14" s="12"/>
+      <c r="O14" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3648,14 +3648,14 @@
         <f>1.2*C2</f>
         <v>600</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="26">
         <v>0.8</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="26">
         <v>0.8</v>
       </c>
       <c r="G15" s="4">
@@ -3677,8 +3677,8 @@
       <c r="K15" t="s">
         <v>100</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17" t="s">
+      <c r="N15" s="13"/>
+      <c r="O15" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3693,14 +3693,14 @@
         <f>0.3*C2</f>
         <v>150</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="26">
         <v>1</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="26">
         <v>1</v>
       </c>
       <c r="G16" s="4">
@@ -3722,26 +3722,26 @@
       <c r="K16" t="s">
         <v>101</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="17"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N17" s="19"/>
-      <c r="O17" s="17"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="14"/>
     </row>
     <row r="18" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N18" s="20"/>
-      <c r="O18" s="17" t="s">
+      <c r="N18" s="17"/>
+      <c r="O18" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N19" s="21"/>
-      <c r="O19" s="17"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="14"/>
     </row>
     <row r="20" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N20" s="22"/>
-      <c r="O20" s="17" t="s">
+      <c r="N20" s="19"/>
+      <c r="O20" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3765,69 +3765,69 @@
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="5.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.25" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="21" customWidth="1"/>
     <col min="9" max="9" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="34">
-        <v>0</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="str">
+      <c r="C2" s="29">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29" t="str">
         <f>IF(D2,"√","×")</f>
         <v>√</v>
       </c>
-      <c r="F2" s="34" t="str">
+      <c r="F2" s="29" t="str">
         <f t="shared" ref="F2:F15" si="0">IF(D2,"×","√")</f>
         <v>×</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
-        <v>0</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="32">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>110</v>
       </c>
       <c r="D3">
@@ -3841,20 +3841,20 @@
         <f t="shared" si="0"/>
         <v>√</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="L3" s="13"/>
+      <c r="I3" s="21"/>
+      <c r="L3" s="10"/>
       <c r="M3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
-        <v>1</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="32">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>112</v>
       </c>
       <c r="D4">
@@ -3868,22 +3868,22 @@
         <f t="shared" si="0"/>
         <v>√</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="11"/>
       <c r="M4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37">
+      <c r="A5" s="32">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D5">
@@ -3897,17 +3897,17 @@
         <f t="shared" si="0"/>
         <v>√</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="L5" s="39"/>
+      <c r="I5" s="41"/>
+      <c r="L5" s="33"/>
     </row>
     <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="37">
+      <c r="A6" s="32">
         <v>3</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="32" t="s">
         <v>116</v>
       </c>
       <c r="D6">
@@ -3921,22 +3921,22 @@
         <f t="shared" si="0"/>
         <v>√</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="17" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="37">
+      <c r="A7" s="32">
         <v>4</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="32" t="s">
         <v>119</v>
       </c>
       <c r="D7">
@@ -3950,19 +3950,19 @@
         <f t="shared" si="0"/>
         <v>√</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="37">
+      <c r="A8" s="32">
         <v>5</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="32" t="s">
         <v>121</v>
       </c>
       <c r="D8">
@@ -3976,20 +3976,20 @@
         <f t="shared" si="0"/>
         <v>√</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="17"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="37">
+      <c r="A9" s="32">
         <v>6</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="32" t="s">
         <v>124</v>
       </c>
       <c r="D9">
@@ -4003,17 +4003,17 @@
         <f t="shared" si="0"/>
         <v>√</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="17"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="37">
+      <c r="A10" s="32">
         <v>7</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="32" t="s">
         <v>126</v>
       </c>
       <c r="D10">
@@ -4027,16 +4027,16 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="17"/>
+      <c r="M10" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="37">
+      <c r="A11" s="32">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="32" t="s">
         <v>127</v>
       </c>
       <c r="D11">
@@ -4050,20 +4050,20 @@
         <f t="shared" si="0"/>
         <v>√</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="37">
+      <c r="A12" s="32">
         <v>9</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="32" t="s">
         <v>100</v>
       </c>
       <c r="D12">
@@ -4077,20 +4077,20 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="17" t="s">
+      <c r="I12" s="21"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="37">
+      <c r="A13" s="32">
         <v>10</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="32" t="s">
         <v>130</v>
       </c>
       <c r="D13">
@@ -4104,18 +4104,18 @@
         <f t="shared" si="0"/>
         <v>√</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="37">
+      <c r="A14" s="32">
         <v>11</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="32" t="s">
         <v>133</v>
       </c>
       <c r="D14">
@@ -4129,18 +4129,18 @@
         <f t="shared" si="0"/>
         <v>√</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="37">
+      <c r="A15" s="32">
         <v>12</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="32" t="s">
         <v>135</v>
       </c>
       <c r="D15">
@@ -4154,32 +4154,32 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
+      <c r="A16" s="32">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="37">
+      <c r="A17" s="32">
         <v>14</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="37">
+      <c r="A18" s="32">
         <v>15</v>
       </c>
-      <c r="I18" s="24"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="24"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I20" s="24"/>
+      <c r="I20" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4195,7 +4195,7 @@
   <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4208,89 +4208,89 @@
     <col min="32" max="32" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="23" customFormat="1" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:30" s="20" customFormat="1" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="X1" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Y1" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="Z1" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AA1" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AB1" s="34" t="s">
         <v>166</v>
       </c>
     </row>

--- a/Assets/Excel/总表（仅供查看）.xlsx
+++ b/Assets/Excel/总表（仅供查看）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817D7222-2FEE-48DD-B316-AF1483408C91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4196A310-CE15-4002-A36D-1400C60D083F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1575" yWindow="4905" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -196,87 +196,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>基础塔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>炮塔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T2</t>
-  </si>
-  <si>
     <t>狙击塔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T3</t>
-  </si>
-  <si>
     <t>机枪塔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T4</t>
-  </si>
-  <si>
     <t>麻醉塔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T5</t>
-  </si>
-  <si>
     <t>沥青塔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T6</t>
-  </si>
-  <si>
     <t>火焰塔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T7</t>
-  </si>
-  <si>
     <t>天罗地网</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3*4</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
     <t>铁蒺藜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3*5</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
     <t>电网</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3*6</t>
-  </si>
-  <si>
-    <t>TP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1892,12 +1848,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1909,7 +1865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC407103-6801-4096-8B21-60BB4A08E0A0}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1927,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -1941,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C2" s="35">
         <v>600</v>
@@ -1955,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C3" s="35">
         <v>60</v>
@@ -1969,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C4" s="35">
         <v>5</v>
@@ -1983,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C5" s="35">
         <v>0</v>
@@ -1997,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C6" s="35">
         <v>0</v>
@@ -2011,7 +1967,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C7" s="35">
         <v>0</v>
@@ -2169,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174ED344-DF20-40FD-BACC-81A5F8F65521}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2217,11 +2173,9 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>
@@ -2252,11 +2206,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>44</v>
+      <c r="A3" s="6">
+        <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
@@ -2288,11 +2242,11 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>46</v>
+      <c r="A4" s="6">
+        <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -2324,11 +2278,11 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>48</v>
+      <c r="A5" s="6">
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>19</v>
@@ -2364,11 +2318,11 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>50</v>
+      <c r="A6" s="6">
+        <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -2404,11 +2358,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>52</v>
+      <c r="A7" s="6">
+        <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
@@ -2444,11 +2398,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>54</v>
+      <c r="A8" s="6">
+        <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>19</v>
@@ -2484,14 +2438,14 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>56</v>
+      <c r="A9" s="6">
+        <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -2522,14 +2476,14 @@
       <c r="R9" s="14"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>59</v>
+      <c r="A10" s="6">
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D10" s="6">
         <v>5</v>
@@ -2560,14 +2514,14 @@
       <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>62</v>
+      <c r="A11" s="6">
+        <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D11" s="6">
         <v>3</v>
@@ -2610,8 +2564,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>65</v>
+      <c r="A14" s="6">
+        <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -2639,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I22">
         <v>300</v>
@@ -2650,7 +2604,7 @@
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="6">
         <v>28</v>
@@ -2662,7 +2616,7 @@
         <v>8</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" ref="I23:J23" si="3">1*I22</f>
@@ -2683,7 +2637,7 @@
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D24" s="6">
         <v>60</v>
@@ -2695,7 +2649,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I24" s="4">
         <f>1*I22</f>
@@ -2716,7 +2670,7 @@
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D25" s="6">
         <v>10</v>
@@ -2729,7 +2683,7 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I25" s="4">
         <f>0.8*I22</f>
@@ -2750,7 +2704,7 @@
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D26" s="6">
         <v>10</v>
@@ -2762,7 +2716,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I26" s="4">
         <f>0.1*I22</f>
@@ -2783,7 +2737,7 @@
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D27" s="6">
         <v>5</v>
@@ -2795,7 +2749,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I27" s="4">
         <f>3*I22</f>
@@ -2816,7 +2770,7 @@
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D28" s="6">
         <v>30</v>
@@ -2828,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I28" s="4">
         <f>1*I22</f>
@@ -2849,7 +2803,7 @@
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H29" s="5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I29" s="4">
         <f>1*I22</f>
@@ -2870,7 +2824,7 @@
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H30" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I30" s="4">
         <f>10*I22</f>
@@ -2891,7 +2845,7 @@
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H31" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I31" s="4">
         <f>0.35*I22</f>
@@ -2912,7 +2866,7 @@
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H32" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I32" s="4">
         <f>2*I22</f>
@@ -2933,7 +2887,7 @@
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H33" s="5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I33" s="4">
         <f>1*I24</f>
@@ -2954,7 +2908,7 @@
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H34" s="5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I34" s="4">
         <f>0.2*I22</f>
@@ -2975,7 +2929,7 @@
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H35" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I35" s="4">
         <f>1.2*I22</f>
@@ -2996,7 +2950,7 @@
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H36" s="5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I36" s="4">
         <f>0.3*I22</f>
@@ -3017,7 +2971,7 @@
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D37">
         <f>VLOOKUP(C37,C23:F28,2,0)</f>
@@ -3070,7 +3024,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G3" activeCellId="2" sqref="A3:C16 E3:E16 G3:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3088,40 +3042,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3">
         <v>500</v>
@@ -3148,7 +3102,7 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -3156,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:J3" si="0">1*C2</f>
@@ -3194,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4">
         <f>1*C2</f>
@@ -3232,7 +3186,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C5" s="4">
         <f>0.6*C2</f>
@@ -3270,7 +3224,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4">
         <f>0.1*C2</f>
@@ -3301,7 +3255,7 @@
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3309,7 +3263,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4">
         <f>3*C2</f>
@@ -3347,7 +3301,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4">
         <f>1*C2</f>
@@ -3380,7 +3334,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3388,7 +3342,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4">
         <f>1*C2</f>
@@ -3421,7 +3375,7 @@
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3429,7 +3383,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4">
         <f>10*C2</f>
@@ -3462,7 +3416,7 @@
         <v>800</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3470,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4">
         <f>0.35*C2</f>
@@ -3503,7 +3457,7 @@
         <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3511,7 +3465,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4">
         <f>2*C2</f>
@@ -3543,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" t="s">
@@ -3555,7 +3509,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4">
         <f>1*C4</f>
@@ -3597,7 +3551,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4">
         <f>0.2*C2</f>
@@ -3630,7 +3584,7 @@
         <v>160</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="14" t="s">
@@ -3642,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4">
         <f>1.2*C2</f>
@@ -3675,7 +3629,7 @@
         <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="14" t="s">
@@ -3687,7 +3641,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4">
         <f>0.3*C2</f>
@@ -3720,7 +3674,7 @@
         <v>120</v>
       </c>
       <c r="K16" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="N16" s="15"/>
       <c r="O16" s="14"/>
@@ -3777,22 +3731,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>30</v>
@@ -3800,10 +3754,10 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C2" s="29">
         <v>0</v>
@@ -3828,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3842,7 +3796,7 @@
         <v>√</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="I3" s="21"/>
       <c r="L3" s="10"/>
@@ -3855,7 +3809,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3869,10 +3823,10 @@
         <v>√</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" t="s">
@@ -3884,7 +3838,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3898,7 +3852,7 @@
         <v>√</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="I5" s="41"/>
       <c r="L5" s="33"/>
@@ -3908,7 +3862,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3922,10 +3876,10 @@
         <v>√</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="14" t="s">
@@ -3937,7 +3891,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3951,7 +3905,7 @@
         <v>√</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="14" t="s">
@@ -3963,7 +3917,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3977,10 +3931,10 @@
         <v>√</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="14"/>
@@ -3990,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4004,7 +3958,7 @@
         <v>√</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="14"/>
@@ -4014,7 +3968,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4037,7 +3991,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4051,10 +4005,10 @@
         <v>√</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="14"/>
@@ -4064,7 +4018,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4078,7 +4032,7 @@
         <v>×</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="I12" s="21"/>
       <c r="L12" s="29"/>
@@ -4091,7 +4045,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4105,10 +4059,10 @@
         <v>√</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
@@ -4116,7 +4070,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4130,10 +4084,10 @@
         <v>√</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -4141,7 +4095,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4155,7 +4109,7 @@
         <v>×</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -4213,85 +4167,85 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB1" s="34" t="s">
         <v>152</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y1" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA1" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB1" s="34" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -4299,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -4385,7 +4339,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -4471,7 +4425,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C4" s="5">
         <v>-40</v>
@@ -4557,7 +4511,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -4643,7 +4597,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -4729,7 +4683,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -4815,7 +4769,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -4901,7 +4855,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -4987,7 +4941,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -5073,7 +5027,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
@@ -5159,7 +5113,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C12" s="5">
         <v>-4</v>
@@ -5245,7 +5199,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
@@ -5332,7 +5286,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -5419,7 +5373,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -5506,7 +5460,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -5593,7 +5547,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -5680,7 +5634,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -5767,7 +5721,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
@@ -5854,7 +5808,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
@@ -5940,7 +5894,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>

--- a/Assets/Excel/总表（仅供查看）.xlsx
+++ b/Assets/Excel/总表（仅供查看）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4196A310-CE15-4002-A36D-1400C60D083F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631C49A3-CCDC-4784-93E7-F64906649BDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1575" yWindow="4905" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7035" yWindow="3285" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="169">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -228,418 +228,441 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>电网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击间隔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
+    <t>迅猛怪</t>
+  </si>
+  <si>
+    <t>爆炸怪</t>
+  </si>
+  <si>
+    <t>巨怪</t>
+  </si>
+  <si>
+    <t>治疗怪</t>
+  </si>
+  <si>
+    <t>光环怪</t>
+  </si>
+  <si>
+    <t>精英怪</t>
+  </si>
+  <si>
+    <t>飞行怪</t>
+  </si>
+  <si>
+    <t>分裂怪</t>
+  </si>
+  <si>
+    <t>小分裂怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇怪</t>
+  </si>
+  <si>
+    <t>坚韧怪</t>
+  </si>
+  <si>
+    <t>瘟疫鸟</t>
+  </si>
+  <si>
+    <t>火焰塔</t>
+  </si>
+  <si>
+    <t>怪物</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>攻击力比例值%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>攻击速度比例值%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>掉落金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>基础怪</t>
+  </si>
+  <si>
+    <t>所有怪物的数据父类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只攻击基地、可魅惑、不可嘲讽</t>
+  </si>
+  <si>
+    <t>aoe恢复血量，攻击力变为回血量</t>
+  </si>
+  <si>
+    <t>提高周围怪物的攻击速度20%</t>
+  </si>
+  <si>
+    <t>小boss</t>
+  </si>
+  <si>
+    <t>空中单位，路线有所不同</t>
+  </si>
+  <si>
+    <t>打死后分裂为两个怪物</t>
+  </si>
+  <si>
+    <t>被玩家击杀之后会扣除玩家血量，伤害必须完全来自玩家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击的单位会中毒</t>
+  </si>
+  <si>
+    <t>持续时间(秒)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础BUFF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低移动速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法做出动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹与眩晕的代码相同、动画不同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型头上有ZZZ渐变出现与消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击后会接触buff效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法移动，可以攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先有沥青BUFF再被点燃才能触发灼烧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续性伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅惑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只作用于怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色呈现半透明紫色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色呈现半透明白色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击杀后扣除击杀方一定血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只作用于玩家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高技能使用单位的仇恨值=1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加快回血速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫鸟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沥青</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭司攻速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速戒指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维吉尔头盔1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维吉尔头盔2</t>
+  </si>
+  <si>
+    <t>维吉尔头盔3</t>
+  </si>
+  <si>
+    <t>猎人捕兽夹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量变化%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力变化%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度变化%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速变化%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血速度变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血速度变化%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活次数%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血速度提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣域防甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚幻项链</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽石手套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣泉指环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝视头盔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不歇披风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击塔</t>
+  </si>
+  <si>
+    <t>岩石塔</t>
+  </si>
+  <si>
+    <t>贪婪之门</t>
+  </si>
+  <si>
+    <t>机枪塔</t>
+  </si>
+  <si>
+    <t>麻醉塔</t>
+  </si>
+  <si>
+    <t>沥青塔</t>
+  </si>
+  <si>
+    <t>天罗地网</t>
+  </si>
+  <si>
     <t>铁蒺藜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电网</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击间隔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓箭手</t>
-  </si>
-  <si>
-    <t>迅猛怪</t>
-  </si>
-  <si>
-    <t>爆炸怪</t>
-  </si>
-  <si>
-    <t>巨怪</t>
-  </si>
-  <si>
-    <t>治疗怪</t>
-  </si>
-  <si>
-    <t>光环怪</t>
-  </si>
-  <si>
-    <t>精英怪</t>
-  </si>
-  <si>
-    <t>飞行怪</t>
-  </si>
-  <si>
-    <t>分裂怪</t>
-  </si>
-  <si>
-    <t>小分裂怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复仇怪</t>
-  </si>
-  <si>
-    <t>坚韧怪</t>
-  </si>
-  <si>
-    <t>瘟疫鸟</t>
-  </si>
-  <si>
-    <t>火焰塔</t>
-  </si>
-  <si>
-    <t>怪物</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>攻击力比例值%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>攻击速度比例值%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>攻击距离</t>
-  </si>
-  <si>
-    <t>掉落金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>基础怪</t>
-  </si>
-  <si>
-    <t>所有怪物的数据父类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只攻击基地、可魅惑、不可嘲讽</t>
-  </si>
-  <si>
-    <t>aoe恢复血量，攻击力变为回血量</t>
-  </si>
-  <si>
-    <t>提高周围怪物的攻击速度20%</t>
-  </si>
-  <si>
-    <t>小boss</t>
-  </si>
-  <si>
-    <t>空中单位，路线有所不同</t>
-  </si>
-  <si>
-    <t>打死后分裂为两个怪物</t>
-  </si>
-  <si>
-    <t>被玩家击杀之后会扣除玩家血量，伤害必须完全来自玩家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>免疫控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被攻击的单位会中毒</t>
-  </si>
-  <si>
-    <t>持续时间(秒)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>减益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础BUFF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低移动速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法做出动作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻痹与眩晕的代码相同、动画不同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻痹</t>
-  </si>
-  <si>
-    <t>睡眠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型头上有ZZZ渐变出现与消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被攻击后会接触buff效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>束缚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法移动，可以攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼烧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先有沥青BUFF再被点燃才能触发灼烧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续性伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魅惑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只作用于怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻速提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中毒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色呈现半透明紫色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色呈现半透明白色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复仇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击杀后扣除击杀方一定血量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只作用于玩家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高技能使用单位的仇恨值=1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加快回血速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光环怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复仇怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚韧怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫鸟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沥青</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点燃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻痹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祭司攻速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻速戒指</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维吉尔头盔1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维吉尔头盔2</t>
-  </si>
-  <si>
-    <t>维吉尔头盔3</t>
-  </si>
-  <si>
-    <t>猎人捕兽夹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻醉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量变化%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力变化%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度变化%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>移速变化%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回血速度变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回血速度变化%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活次数%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发生次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回血速度提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域防甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚幻项链</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顽石手套</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣泉指环</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凝视头盔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不歇披风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁费用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -970,13 +993,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1534,17 +1557,17 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="38">
         <f>0.8*C2</f>
         <v>160</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="38">
         <f>1*$D$2</f>
         <v>1</v>
       </c>
@@ -1563,16 +1586,16 @@
         <f>E4*G4</f>
         <v>48</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <f>1.5*I2</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="4">
         <f>1.2*$E$2</f>
         <v>12</v>
@@ -1588,7 +1611,7 @@
         <f>E5*G5</f>
         <v>12</v>
       </c>
-      <c r="I5" s="38"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1682,7 +1705,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="4">
@@ -1708,7 +1731,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="D13" s="36"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="4">
         <f>E5*I13</f>
         <v>4.8000000000000007</v>
@@ -1865,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC407103-6801-4096-8B21-60BB4A08E0A0}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1883,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -1897,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="35">
         <v>600</v>
@@ -1911,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="35">
         <v>60</v>
@@ -1925,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="35">
         <v>5</v>
@@ -1939,7 +1962,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="35">
         <v>0</v>
@@ -1953,7 +1976,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="35">
         <v>0</v>
@@ -1967,7 +1990,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="35">
         <v>0</v>
@@ -2125,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174ED344-DF20-40FD-BACC-81A5F8F65521}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2210,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
@@ -2246,24 +2269,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="6">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="E4" s="6">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="H4" s="3">
         <v>10</v>
@@ -2282,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>19</v>
@@ -2322,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -2362,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
@@ -2402,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>19</v>
@@ -2442,7 +2465,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>19</v>
@@ -2480,7 +2503,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -2518,7 +2541,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>19</v>
@@ -2593,7 +2616,7 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22">
         <v>300</v>
@@ -2613,10 +2636,11 @@
         <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>8</v>
+        <f>INT(60/E23)</f>
+        <v>60</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" ref="I23:J23" si="3">1*I22</f>
@@ -2628,10 +2652,10 @@
       </c>
       <c r="L23">
         <f>I23-INT(2*$F$37/J23/$E$37)*$D$37</f>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="M23">
-        <f>IF(L23&gt;=0,1,0)</f>
+        <f>IF(L23&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2640,16 +2664,17 @@
         <v>44</v>
       </c>
       <c r="D24" s="6">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="E24" s="6">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="F24" s="3">
-        <v>10</v>
+        <f t="shared" ref="F24:F28" si="4">INT(60/E24)</f>
+        <v>8</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="4">
         <f>1*I22</f>
@@ -2660,11 +2685,11 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:L36" si="4">I24-INT(2*$F$37/J24/$E$37)*$D$37</f>
-        <v>180</v>
+        <f t="shared" ref="L24:L36" si="5">I24-INT(2*$F$37/J24/$E$37)*$D$37</f>
+        <v>150</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24:M36" si="5">IF(L24&gt;=0,1,0)</f>
+        <f t="shared" ref="M24:M36" si="6">IF(L24&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2679,11 +2704,12 @@
         <v>0.2</v>
       </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" s="4">
         <f>0.8*I22</f>
@@ -2694,11 +2720,11 @@
         <v>2.6</v>
       </c>
       <c r="L25">
-        <f t="shared" si="4"/>
-        <v>150</v>
+        <f t="shared" si="5"/>
+        <v>240</v>
       </c>
       <c r="M25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2713,10 +2739,11 @@
         <v>0.6</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I26" s="4">
         <f>0.1*I22</f>
@@ -2728,10 +2755,10 @@
       </c>
       <c r="L26">
         <f>I26-INT(2*$F$37/J26/$E$37)*$D$37</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2746,10 +2773,11 @@
         <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="4">
         <f>3*I22</f>
@@ -2760,11 +2788,11 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
-        <v>660</v>
+        <f t="shared" si="5"/>
+        <v>600</v>
       </c>
       <c r="M27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2779,10 +2807,11 @@
         <v>1</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I28" s="4">
         <f>1*I22</f>
@@ -2793,17 +2822,17 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="4"/>
-        <v>180</v>
+        <f t="shared" si="5"/>
+        <v>150</v>
       </c>
       <c r="M28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H29" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I29" s="4">
         <f>1*I22</f>
@@ -2814,17 +2843,17 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <f t="shared" si="4"/>
-        <v>180</v>
+        <f t="shared" si="5"/>
+        <v>150</v>
       </c>
       <c r="M29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I30" s="4">
         <f>10*I22</f>
@@ -2835,17 +2864,17 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="4"/>
-        <v>2880</v>
+        <f t="shared" si="5"/>
+        <v>2850</v>
       </c>
       <c r="M30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H31" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="4">
         <f>0.35*I22</f>
@@ -2856,17 +2885,17 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="4"/>
-        <v>-15</v>
+        <f t="shared" si="5"/>
+        <v>-45</v>
       </c>
       <c r="M31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H32" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="4">
         <f>2*I22</f>
@@ -2877,17 +2906,17 @@
         <v>1.4</v>
       </c>
       <c r="L32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>450</v>
       </c>
       <c r="M32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H33" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I33" s="4">
         <f>1*I24</f>
@@ -2898,17 +2927,17 @@
         <v>1.4</v>
       </c>
       <c r="L33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="M33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I34" s="4">
         <f>0.2*I22</f>
@@ -2919,17 +2948,17 @@
         <v>2</v>
       </c>
       <c r="L34">
-        <f t="shared" si="4"/>
-        <v>-60</v>
+        <f t="shared" si="5"/>
+        <v>-90</v>
       </c>
       <c r="M34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H35" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I35" s="4">
         <f>1.2*I22</f>
@@ -2940,17 +2969,17 @@
         <v>2.4</v>
       </c>
       <c r="L35">
-        <f t="shared" si="4"/>
-        <v>270</v>
+        <f t="shared" si="5"/>
+        <v>360</v>
       </c>
       <c r="M35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H36" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I36" s="4">
         <f>0.3*I22</f>
@@ -2961,29 +2990,29 @@
         <v>2</v>
       </c>
       <c r="L36">
-        <f t="shared" si="4"/>
-        <v>-30</v>
+        <f t="shared" si="5"/>
+        <v>-60</v>
       </c>
       <c r="M36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="D37">
         <f>VLOOKUP(C37,C23:F28,2,0)</f>
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E37">
         <f>VLOOKUP(C37,C23:F28,3,0)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F37">
         <f>VLOOKUP(C37,C23:F28,4,0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3016,6 +3045,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3042,40 +3072,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>75</v>
-      </c>
-      <c r="K1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3">
         <v>500</v>
@@ -3102,7 +3132,7 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -3110,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:J3" si="0">1*C2</f>
@@ -3148,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4">
         <f>1*C2</f>
@@ -3186,7 +3216,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4">
         <f>0.6*C2</f>
@@ -3224,7 +3254,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4">
         <f>0.1*C2</f>
@@ -3255,7 +3285,7 @@
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3263,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4">
         <f>3*C2</f>
@@ -3301,7 +3331,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4">
         <f>1*C2</f>
@@ -3334,7 +3364,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3342,7 +3372,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4">
         <f>1*C2</f>
@@ -3375,7 +3405,7 @@
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3383,7 +3413,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4">
         <f>10*C2</f>
@@ -3416,7 +3446,7 @@
         <v>800</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3424,7 +3454,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4">
         <f>0.35*C2</f>
@@ -3457,7 +3487,7 @@
         <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3465,7 +3495,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="4">
         <f>2*C2</f>
@@ -3497,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" t="s">
@@ -3509,7 +3539,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4">
         <f>1*C4</f>
@@ -3551,7 +3581,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4">
         <f>0.2*C2</f>
@@ -3584,7 +3614,7 @@
         <v>160</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="14" t="s">
@@ -3596,7 +3626,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4">
         <f>1.2*C2</f>
@@ -3629,7 +3659,7 @@
         <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="14" t="s">
@@ -3641,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4">
         <f>0.3*C2</f>
@@ -3674,7 +3704,7 @@
         <v>120</v>
       </c>
       <c r="K16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N16" s="15"/>
       <c r="O16" s="14"/>
@@ -3731,22 +3761,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="27" t="s">
         <v>92</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>93</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>30</v>
@@ -3754,10 +3784,10 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>94</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>95</v>
       </c>
       <c r="C2" s="29">
         <v>0</v>
@@ -3782,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3796,7 +3826,7 @@
         <v>√</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I3" s="21"/>
       <c r="L3" s="10"/>
@@ -3809,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3823,10 +3853,10 @@
         <v>√</v>
       </c>
       <c r="H4" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="41" t="s">
         <v>99</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>100</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" t="s">
@@ -3838,7 +3868,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3852,7 +3882,7 @@
         <v>√</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I5" s="41"/>
       <c r="L5" s="33"/>
@@ -3862,7 +3892,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3876,10 +3906,10 @@
         <v>√</v>
       </c>
       <c r="H6" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>104</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="14" t="s">
@@ -3891,7 +3921,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3905,7 +3935,7 @@
         <v>√</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="14" t="s">
@@ -3917,7 +3947,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3931,10 +3961,10 @@
         <v>√</v>
       </c>
       <c r="H8" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>109</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="14"/>
@@ -3944,7 +3974,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3958,7 +3988,7 @@
         <v>√</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="14"/>
@@ -3968,7 +3998,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3991,7 +4021,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4005,10 +4035,10 @@
         <v>√</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="14"/>
@@ -4018,7 +4048,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4032,7 +4062,7 @@
         <v>×</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I12" s="21"/>
       <c r="L12" s="29"/>
@@ -4045,7 +4075,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4059,10 +4089,10 @@
         <v>√</v>
       </c>
       <c r="H13" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
@@ -4070,7 +4100,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4084,10 +4114,10 @@
         <v>√</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -4095,7 +4125,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4109,7 +4139,7 @@
         <v>×</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -4167,85 +4197,85 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="O1" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA1" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y1" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA1" s="34" t="s">
+      <c r="AB1" s="34" t="s">
         <v>151</v>
-      </c>
-      <c r="AB1" s="34" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -4253,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -4339,7 +4369,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -4425,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="5">
         <v>-40</v>
@@ -4511,7 +4541,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -4597,7 +4627,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -4683,7 +4713,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -4769,7 +4799,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -4941,7 +4971,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -5027,7 +5057,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
@@ -5113,7 +5143,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="5">
         <v>-4</v>
@@ -5199,7 +5229,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
@@ -5286,7 +5316,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -5373,7 +5403,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -5460,7 +5490,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -5547,7 +5577,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -5634,7 +5664,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -5721,7 +5751,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
@@ -5808,7 +5838,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
@@ -5894,7 +5924,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
